--- a/src/test/resources/order/order_history_02.xlsx
+++ b/src/test/resources/order/order_history_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunosuke/Documents/workspace-spring-tool-suite-4-4.13.1.RELEASE/ec-202201a-develop/src/test/resources/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CBC6B5-E73F-DD46-9413-CEA960FB4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182120C3-2D91-0E49-BC26-115D3BABAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11360" yWindow="1460" windowWidth="17280" windowHeight="10680" xr2:uid="{611B2D67-5AE5-4CA9-B38E-DF57C7966C0C}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
